--- a/db/import/accounts.xlsx
+++ b/db/import/accounts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="18780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
     <t>subdomain</t>
   </si>
   <si>
-    <t>Sitech-SE</t>
+    <t>Spoke Systems</t>
   </si>
   <si>
-    <t>sitech-se</t>
+    <t>spoke</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/db/import/accounts.xlsx
+++ b/db/import/accounts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="18780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
     <t>subdomain</t>
   </si>
   <si>
-    <t>Spoke Systems</t>
+    <t>Sitech-SE</t>
   </si>
   <si>
-    <t>spoke</t>
+    <t>sitech-se</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
